--- a/2022/Symphony/Others/Target/June/Primary_Secondary Target Feedback June'22 of Rajshahi Region.xlsx
+++ b/2022/Symphony/Others/Target/June/Primary_Secondary Target Feedback June'22 of Rajshahi Region.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\Others\Target\June\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="602" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="Distributor Primary" sheetId="1" r:id="rId1"/>
@@ -1365,6 +1365,25 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,25 +1405,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1923,11 +1923,11 @@
   </sheetPr>
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AF4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL8" sqref="AL8"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2657,121 +2657,121 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="132" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+    <row r="8" spans="1:38" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="120" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="128">
+      <c r="E8" s="121">
         <f t="shared" si="0"/>
         <v>11104668.547281554</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="121">
         <f t="shared" si="1"/>
         <v>4902</v>
       </c>
-      <c r="G8" s="128">
+      <c r="G8" s="121">
         <v>771</v>
       </c>
-      <c r="H8" s="128">
+      <c r="H8" s="121">
         <v>257</v>
       </c>
-      <c r="I8" s="128">
+      <c r="I8" s="121">
         <v>115</v>
       </c>
-      <c r="J8" s="128">
+      <c r="J8" s="121">
         <v>385</v>
       </c>
-      <c r="K8" s="128">
+      <c r="K8" s="121">
         <v>128</v>
       </c>
-      <c r="L8" s="128">
+      <c r="L8" s="121">
         <v>128</v>
       </c>
-      <c r="M8" s="128">
+      <c r="M8" s="121">
         <v>257</v>
       </c>
-      <c r="N8" s="128">
+      <c r="N8" s="121">
         <v>237</v>
       </c>
-      <c r="O8" s="128">
+      <c r="O8" s="121">
         <v>64</v>
       </c>
-      <c r="P8" s="128">
+      <c r="P8" s="121">
         <v>128</v>
       </c>
-      <c r="Q8" s="128">
+      <c r="Q8" s="121">
         <v>128</v>
       </c>
-      <c r="R8" s="128">
+      <c r="R8" s="121">
         <v>128</v>
       </c>
-      <c r="S8" s="128">
+      <c r="S8" s="121">
         <v>128</v>
       </c>
-      <c r="T8" s="128">
+      <c r="T8" s="121">
         <v>193</v>
       </c>
-      <c r="U8" s="128">
+      <c r="U8" s="121">
         <v>257</v>
       </c>
-      <c r="V8" s="128">
+      <c r="V8" s="121">
         <v>193</v>
       </c>
-      <c r="W8" s="128">
+      <c r="W8" s="121">
         <v>193</v>
       </c>
-      <c r="X8" s="128">
+      <c r="X8" s="121">
         <v>90</v>
       </c>
-      <c r="Y8" s="128">
+      <c r="Y8" s="121">
         <v>193</v>
       </c>
-      <c r="Z8" s="128">
+      <c r="Z8" s="121">
         <v>193</v>
       </c>
-      <c r="AA8" s="128">
+      <c r="AA8" s="121">
         <v>47</v>
       </c>
-      <c r="AB8" s="128">
+      <c r="AB8" s="121">
         <v>25</v>
       </c>
-      <c r="AC8" s="128">
+      <c r="AC8" s="121">
         <v>50</v>
       </c>
-      <c r="AD8" s="128">
+      <c r="AD8" s="121">
         <v>53</v>
       </c>
-      <c r="AE8" s="128">
+      <c r="AE8" s="121">
         <v>53</v>
       </c>
-      <c r="AF8" s="128">
+      <c r="AF8" s="121">
         <v>53</v>
       </c>
-      <c r="AG8" s="129">
+      <c r="AG8" s="122">
         <v>141</v>
       </c>
-      <c r="AH8" s="129">
+      <c r="AH8" s="122">
         <v>53</v>
       </c>
-      <c r="AI8" s="129">
+      <c r="AI8" s="122">
         <v>63</v>
       </c>
-      <c r="AJ8" s="129">
+      <c r="AJ8" s="122">
         <v>38</v>
       </c>
-      <c r="AK8" s="130">
+      <c r="AK8" s="123">
         <v>117</v>
       </c>
-      <c r="AL8" s="131">
+      <c r="AL8" s="124">
         <v>43</v>
       </c>
     </row>
@@ -2893,121 +2893,121 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="55" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="91" t="s">
+    <row r="10" spans="1:38" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="121">
         <f t="shared" si="0"/>
         <v>10162945.43262136</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="121">
         <f t="shared" si="1"/>
         <v>4552</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="121">
         <v>765</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="121">
         <v>288</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="121">
         <v>94</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="121">
         <v>383</v>
       </c>
-      <c r="K10" s="84">
+      <c r="K10" s="121">
         <v>94</v>
       </c>
-      <c r="L10" s="84">
+      <c r="L10" s="121">
         <v>94</v>
       </c>
-      <c r="M10" s="84">
+      <c r="M10" s="121">
         <v>288</v>
       </c>
-      <c r="N10" s="84">
+      <c r="N10" s="121">
         <v>288</v>
       </c>
-      <c r="O10" s="84">
+      <c r="O10" s="121">
         <v>47</v>
       </c>
-      <c r="P10" s="84">
+      <c r="P10" s="121">
         <v>94</v>
       </c>
-      <c r="Q10" s="84">
+      <c r="Q10" s="121">
         <v>94</v>
       </c>
-      <c r="R10" s="84">
+      <c r="R10" s="121">
         <v>94</v>
       </c>
-      <c r="S10" s="84">
+      <c r="S10" s="121">
         <v>94</v>
       </c>
-      <c r="T10" s="84">
+      <c r="T10" s="121">
         <v>141</v>
       </c>
-      <c r="U10" s="84">
+      <c r="U10" s="121">
         <v>288</v>
       </c>
-      <c r="V10" s="84">
+      <c r="V10" s="121">
         <v>241</v>
       </c>
-      <c r="W10" s="84">
+      <c r="W10" s="121">
         <v>141</v>
       </c>
-      <c r="X10" s="84">
+      <c r="X10" s="121">
         <v>66</v>
       </c>
-      <c r="Y10" s="84">
+      <c r="Y10" s="121">
         <v>141</v>
       </c>
-      <c r="Z10" s="84">
+      <c r="Z10" s="121">
         <v>141</v>
       </c>
-      <c r="AA10" s="84">
+      <c r="AA10" s="121">
         <v>40</v>
       </c>
-      <c r="AB10" s="84">
+      <c r="AB10" s="121">
         <v>26</v>
       </c>
-      <c r="AC10" s="84">
+      <c r="AC10" s="121">
         <v>47</v>
       </c>
-      <c r="AD10" s="84">
+      <c r="AD10" s="121">
         <v>52</v>
       </c>
-      <c r="AE10" s="84">
+      <c r="AE10" s="121">
         <v>58</v>
       </c>
-      <c r="AF10" s="84">
+      <c r="AF10" s="121">
         <v>45</v>
       </c>
-      <c r="AG10" s="85">
+      <c r="AG10" s="122">
         <v>125</v>
       </c>
-      <c r="AH10" s="85">
+      <c r="AH10" s="122">
         <v>44</v>
       </c>
-      <c r="AI10" s="85">
+      <c r="AI10" s="122">
         <v>52</v>
       </c>
-      <c r="AJ10" s="85">
+      <c r="AJ10" s="122">
         <v>42</v>
       </c>
-      <c r="AK10" s="108">
+      <c r="AK10" s="123">
         <v>112</v>
       </c>
-      <c r="AL10" s="111">
+      <c r="AL10" s="124">
         <v>33</v>
       </c>
     </row>
@@ -3720,12 +3720,12 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
       <c r="E17" s="90">
         <f t="shared" ref="E17:AK17" si="2">SUM(E4:E16)</f>
         <v>105100938.15310678</v>
@@ -4605,121 +4605,121 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="132" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+    <row r="8" spans="1:38" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="120" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="128">
+      <c r="E8" s="121">
         <f t="shared" si="0"/>
         <v>11379390</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="121">
         <f t="shared" si="1"/>
         <v>4902</v>
       </c>
-      <c r="G8" s="128">
+      <c r="G8" s="121">
         <v>771</v>
       </c>
-      <c r="H8" s="128">
+      <c r="H8" s="121">
         <v>257</v>
       </c>
-      <c r="I8" s="128">
+      <c r="I8" s="121">
         <v>115</v>
       </c>
-      <c r="J8" s="128">
+      <c r="J8" s="121">
         <v>385</v>
       </c>
-      <c r="K8" s="128">
+      <c r="K8" s="121">
         <v>128</v>
       </c>
-      <c r="L8" s="128">
+      <c r="L8" s="121">
         <v>128</v>
       </c>
-      <c r="M8" s="128">
+      <c r="M8" s="121">
         <v>257</v>
       </c>
-      <c r="N8" s="128">
+      <c r="N8" s="121">
         <v>237</v>
       </c>
-      <c r="O8" s="128">
+      <c r="O8" s="121">
         <v>64</v>
       </c>
-      <c r="P8" s="128">
+      <c r="P8" s="121">
         <v>128</v>
       </c>
-      <c r="Q8" s="128">
+      <c r="Q8" s="121">
         <v>128</v>
       </c>
-      <c r="R8" s="128">
+      <c r="R8" s="121">
         <v>128</v>
       </c>
-      <c r="S8" s="128">
+      <c r="S8" s="121">
         <v>128</v>
       </c>
-      <c r="T8" s="128">
+      <c r="T8" s="121">
         <v>193</v>
       </c>
-      <c r="U8" s="128">
+      <c r="U8" s="121">
         <v>257</v>
       </c>
-      <c r="V8" s="128">
+      <c r="V8" s="121">
         <v>193</v>
       </c>
-      <c r="W8" s="128">
+      <c r="W8" s="121">
         <v>193</v>
       </c>
-      <c r="X8" s="128">
+      <c r="X8" s="121">
         <v>90</v>
       </c>
-      <c r="Y8" s="128">
+      <c r="Y8" s="121">
         <v>193</v>
       </c>
-      <c r="Z8" s="128">
+      <c r="Z8" s="121">
         <v>193</v>
       </c>
-      <c r="AA8" s="128">
+      <c r="AA8" s="121">
         <v>47</v>
       </c>
-      <c r="AB8" s="128">
+      <c r="AB8" s="121">
         <v>25</v>
       </c>
-      <c r="AC8" s="128">
+      <c r="AC8" s="121">
         <v>50</v>
       </c>
-      <c r="AD8" s="128">
+      <c r="AD8" s="121">
         <v>53</v>
       </c>
-      <c r="AE8" s="128">
+      <c r="AE8" s="121">
         <v>53</v>
       </c>
-      <c r="AF8" s="128">
+      <c r="AF8" s="121">
         <v>53</v>
       </c>
-      <c r="AG8" s="128">
+      <c r="AG8" s="121">
         <v>141</v>
       </c>
-      <c r="AH8" s="128">
+      <c r="AH8" s="121">
         <v>53</v>
       </c>
-      <c r="AI8" s="129">
+      <c r="AI8" s="122">
         <v>63</v>
       </c>
-      <c r="AJ8" s="129">
+      <c r="AJ8" s="122">
         <v>38</v>
       </c>
-      <c r="AK8" s="127">
+      <c r="AK8" s="120">
         <v>117</v>
       </c>
-      <c r="AL8" s="127">
+      <c r="AL8" s="120">
         <v>43</v>
       </c>
     </row>
@@ -5668,12 +5668,12 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
       <c r="E17" s="90">
         <f t="shared" ref="E17:AL17" si="2">SUM(E4:E16)</f>
         <v>107729040</v>
@@ -5857,25 +5857,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="127" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="70">
@@ -5976,13 +5976,13 @@
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
       <c r="H2" s="49" t="s">
         <v>157</v>
       </c>
@@ -15767,7 +15767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -15807,25 +15807,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="127" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="48">
@@ -15926,13 +15926,13 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A2" s="123"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
       <c r="H2" s="49" t="s">
         <v>157</v>
       </c>
